--- a/data/pca/factorExposure/factorExposure_2017-01-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-01-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.007578507143106078</v>
+        <v>0.01331773529162402</v>
       </c>
       <c r="C2">
-        <v>0.01724639009088713</v>
+        <v>0.03902002974232486</v>
       </c>
       <c r="D2">
-        <v>0.03420370834034122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.03172603242085104</v>
+      </c>
+      <c r="E2">
+        <v>-0.05076273984255406</v>
+      </c>
+      <c r="F2">
+        <v>-0.01456024506544262</v>
+      </c>
+      <c r="G2">
+        <v>-0.1071131273394263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.05468004335839775</v>
+        <v>0.03836137762775508</v>
       </c>
       <c r="C3">
-        <v>0.1015755163294014</v>
+        <v>0.09300432370486811</v>
       </c>
       <c r="D3">
-        <v>0.04762950094166885</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.01903501208113474</v>
+      </c>
+      <c r="E3">
+        <v>-0.1047886080692789</v>
+      </c>
+      <c r="F3">
+        <v>-0.02146488236604588</v>
+      </c>
+      <c r="G3">
+        <v>-0.1336543710895595</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.05561731223023379</v>
+        <v>0.05448900595678927</v>
       </c>
       <c r="C4">
-        <v>0.05477742863103759</v>
+        <v>0.06309863337940493</v>
       </c>
       <c r="D4">
-        <v>0.03977140243666787</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.02657936096601262</v>
+      </c>
+      <c r="E4">
+        <v>-0.04939109185067683</v>
+      </c>
+      <c r="F4">
+        <v>-0.006585844569348298</v>
+      </c>
+      <c r="G4">
+        <v>-0.1020334200831092</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01865218942346631</v>
+        <v>0.03253099522445964</v>
       </c>
       <c r="C6">
-        <v>0.04293312004852089</v>
+        <v>0.04609092175582168</v>
       </c>
       <c r="D6">
-        <v>0.03279493790349711</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01921650655824885</v>
+      </c>
+      <c r="E6">
+        <v>-0.05382828601566367</v>
+      </c>
+      <c r="F6">
+        <v>-0.008383812770195405</v>
+      </c>
+      <c r="G6">
+        <v>-0.08528436420132457</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.0124659990969062</v>
+        <v>0.02021028735550227</v>
       </c>
       <c r="C7">
-        <v>0.03331143345942002</v>
+        <v>0.03536490453170888</v>
       </c>
       <c r="D7">
-        <v>0.02655188258971816</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.01528521191818003</v>
+      </c>
+      <c r="E7">
+        <v>-0.02453297435416657</v>
+      </c>
+      <c r="F7">
+        <v>0.002189993030635347</v>
+      </c>
+      <c r="G7">
+        <v>-0.1260368877583263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0006891369478220557</v>
+        <v>0.003838673610771616</v>
       </c>
       <c r="C8">
-        <v>-0.003181978378399274</v>
+        <v>0.01965181894868371</v>
       </c>
       <c r="D8">
-        <v>-0.0007409497649459288</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.004418656129473474</v>
+      </c>
+      <c r="E8">
+        <v>-0.03570357008793303</v>
+      </c>
+      <c r="F8">
+        <v>-0.00444702622324947</v>
+      </c>
+      <c r="G8">
+        <v>-0.06984820753163509</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.02338007234669401</v>
+        <v>0.032985086089284</v>
       </c>
       <c r="C9">
-        <v>0.0353684046031026</v>
+        <v>0.04524341213993534</v>
       </c>
       <c r="D9">
-        <v>0.02753164906169469</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.01729444436980268</v>
+      </c>
+      <c r="E9">
+        <v>-0.03401855322737733</v>
+      </c>
+      <c r="F9">
+        <v>-0.001939145108713007</v>
+      </c>
+      <c r="G9">
+        <v>-0.1011878843240759</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1062661676559019</v>
+        <v>0.09762377321647775</v>
       </c>
       <c r="C10">
-        <v>-0.1542031847596758</v>
+        <v>-0.1905697075492636</v>
       </c>
       <c r="D10">
-        <v>-0.099895927099785</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01563664890821653</v>
+      </c>
+      <c r="E10">
+        <v>-0.01468268532135579</v>
+      </c>
+      <c r="F10">
+        <v>-0.0259100679998344</v>
+      </c>
+      <c r="G10">
+        <v>-0.05003286272573547</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.03209436464197865</v>
+        <v>0.0358642951515753</v>
       </c>
       <c r="C11">
-        <v>0.05447139602285068</v>
+        <v>0.05197392622790509</v>
       </c>
       <c r="D11">
-        <v>0.02001411254542066</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.003021283051818251</v>
+      </c>
+      <c r="E11">
+        <v>-0.02611099729351423</v>
+      </c>
+      <c r="F11">
+        <v>0.01382317979703374</v>
+      </c>
+      <c r="G11">
+        <v>-0.082295169737385</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.03114161049190023</v>
+        <v>0.03757219566384622</v>
       </c>
       <c r="C12">
-        <v>0.04467112050119958</v>
+        <v>0.04621715716055592</v>
       </c>
       <c r="D12">
-        <v>0.02114860976671857</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.00696049390309998</v>
+      </c>
+      <c r="E12">
+        <v>-0.01526316236159351</v>
+      </c>
+      <c r="F12">
+        <v>0.002649334727574185</v>
+      </c>
+      <c r="G12">
+        <v>-0.07801876701764246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.00765065637216568</v>
+        <v>0.009899674398948068</v>
       </c>
       <c r="C13">
-        <v>0.01755349859156238</v>
+        <v>0.0346571653711763</v>
       </c>
       <c r="D13">
-        <v>0.03145352528909279</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.02966035523191852</v>
+      </c>
+      <c r="E13">
+        <v>-0.06032104386939825</v>
+      </c>
+      <c r="F13">
+        <v>-0.01501944909215538</v>
+      </c>
+      <c r="G13">
+        <v>-0.1394947557964532</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.003186598450037964</v>
+        <v>0.008854416951105839</v>
       </c>
       <c r="C14">
-        <v>0.01977470922373974</v>
+        <v>0.02494599957139985</v>
       </c>
       <c r="D14">
-        <v>0.01710298196195149</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01149211405640629</v>
+      </c>
+      <c r="E14">
+        <v>-0.01934615333616155</v>
+      </c>
+      <c r="F14">
+        <v>-0.007260133980151301</v>
+      </c>
+      <c r="G14">
+        <v>-0.116424883257486</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.02752259892830176</v>
+        <v>0.03395983199798133</v>
       </c>
       <c r="C16">
-        <v>0.03756375086045576</v>
+        <v>0.04455896601900208</v>
       </c>
       <c r="D16">
-        <v>0.01293109842970069</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.002461379511508449</v>
+      </c>
+      <c r="E16">
+        <v>-0.02129495440254928</v>
+      </c>
+      <c r="F16">
+        <v>-0.004264933160345952</v>
+      </c>
+      <c r="G16">
+        <v>-0.08474762938718292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02283956401473139</v>
+        <v>0.01787251425887353</v>
       </c>
       <c r="C19">
-        <v>0.04277666703410363</v>
+        <v>0.04541886449547847</v>
       </c>
       <c r="D19">
-        <v>0.03007401438611304</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.02245855629282246</v>
+      </c>
+      <c r="E19">
+        <v>-0.09569786036221409</v>
+      </c>
+      <c r="F19">
+        <v>-0.01401387690501501</v>
+      </c>
+      <c r="G19">
+        <v>-0.1383357767850997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.008023939541053335</v>
+        <v>0.01439689393632803</v>
       </c>
       <c r="C20">
-        <v>0.02814792079619638</v>
+        <v>0.0370660818602874</v>
       </c>
       <c r="D20">
-        <v>0.02377238510132594</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.01579218093813213</v>
+      </c>
+      <c r="E20">
+        <v>-0.04517008476667127</v>
+      </c>
+      <c r="F20">
+        <v>-0.02671347235350522</v>
+      </c>
+      <c r="G20">
+        <v>-0.1098779543906949</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.0006744474575990249</v>
+        <v>0.006270296499006747</v>
       </c>
       <c r="C21">
-        <v>0.02045840127670927</v>
+        <v>0.02970935263583057</v>
       </c>
       <c r="D21">
-        <v>0.02469114140141488</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.02175883898450605</v>
+      </c>
+      <c r="E21">
+        <v>-0.06340386117161008</v>
+      </c>
+      <c r="F21">
+        <v>-0.01789536441148453</v>
+      </c>
+      <c r="G21">
+        <v>-0.1535177035232185</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001227120513899392</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.00560270360354218</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.002534900318092107</v>
+      </c>
+      <c r="E22">
+        <v>-0.01925782681092956</v>
+      </c>
+      <c r="F22">
+        <v>0.003225884184320352</v>
+      </c>
+      <c r="G22">
+        <v>-0.004199482372452339</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001202687279315986</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.005512430138322432</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.002520574486056143</v>
+      </c>
+      <c r="E23">
+        <v>-0.01917401733177796</v>
+      </c>
+      <c r="F23">
+        <v>0.002978805529744707</v>
+      </c>
+      <c r="G23">
+        <v>-0.004056318632834353</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.02204604880729159</v>
+        <v>0.03033622275968851</v>
       </c>
       <c r="C24">
-        <v>0.04216142936547144</v>
+        <v>0.04894292629495</v>
       </c>
       <c r="D24">
-        <v>0.02128964125645711</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.007585220795512194</v>
+      </c>
+      <c r="E24">
+        <v>-0.01973100113321636</v>
+      </c>
+      <c r="F24">
+        <v>0.004448393834881403</v>
+      </c>
+      <c r="G24">
+        <v>-0.08540667840512364</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.0392792187006868</v>
+        <v>0.04291989813322225</v>
       </c>
       <c r="C25">
-        <v>0.05223271976013404</v>
+        <v>0.05620155728423377</v>
       </c>
       <c r="D25">
-        <v>0.02850108932907073</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.01173595795337017</v>
+      </c>
+      <c r="E25">
+        <v>-0.01305142751558941</v>
+      </c>
+      <c r="F25">
+        <v>0.004983072362068509</v>
+      </c>
+      <c r="G25">
+        <v>-0.09234651000151949</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.005831253913679167</v>
+        <v>0.01443591814448384</v>
       </c>
       <c r="C26">
-        <v>-0.006086448898132864</v>
+        <v>0.008991730224382532</v>
       </c>
       <c r="D26">
-        <v>0.02043076945799344</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02454588625565709</v>
+      </c>
+      <c r="E26">
+        <v>-0.01546698412052348</v>
+      </c>
+      <c r="F26">
+        <v>-0.00514222725854109</v>
+      </c>
+      <c r="G26">
+        <v>-0.08559607711167423</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.1345196802569636</v>
+        <v>0.1277022698644552</v>
       </c>
       <c r="C28">
-        <v>-0.1820538475907952</v>
+        <v>-0.24474268151412</v>
       </c>
       <c r="D28">
-        <v>-0.1037993187682657</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.007169392709923166</v>
+      </c>
+      <c r="E28">
+        <v>0.004704612808849651</v>
+      </c>
+      <c r="F28">
+        <v>-0.02298150843906947</v>
+      </c>
+      <c r="G28">
+        <v>-0.04401353390169516</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.00884948170540646</v>
+        <v>0.007992468914009133</v>
       </c>
       <c r="C29">
-        <v>0.01648089025696731</v>
+        <v>0.02062636486466604</v>
       </c>
       <c r="D29">
-        <v>0.01396343638776747</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01026964204815201</v>
+      </c>
+      <c r="E29">
+        <v>-0.01178117183250847</v>
+      </c>
+      <c r="F29">
+        <v>-0.01153951680105402</v>
+      </c>
+      <c r="G29">
+        <v>-0.106143121060796</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.03026595484919851</v>
+        <v>0.03813934676017865</v>
       </c>
       <c r="C30">
-        <v>0.06338397988190074</v>
+        <v>0.06262039772408461</v>
       </c>
       <c r="D30">
-        <v>0.05109243045472234</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.03163586876840001</v>
+      </c>
+      <c r="E30">
+        <v>-0.07772856314204629</v>
+      </c>
+      <c r="F30">
+        <v>0.01527951796251097</v>
+      </c>
+      <c r="G30">
+        <v>-0.1239734834342943</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.03630287485410916</v>
+        <v>0.05324162080736942</v>
       </c>
       <c r="C31">
-        <v>0.01996887579357102</v>
+        <v>0.03711798086535595</v>
       </c>
       <c r="D31">
-        <v>0.00754425250275415</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.004117457463848057</v>
+      </c>
+      <c r="E31">
+        <v>-5.711352965816505e-06</v>
+      </c>
+      <c r="F31">
+        <v>-0.03523692892079298</v>
+      </c>
+      <c r="G31">
+        <v>-0.0972185729208072</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.003267434156006574</v>
+        <v>0.002020604488407208</v>
       </c>
       <c r="C32">
-        <v>0.02945123585363698</v>
+        <v>0.01843491675347132</v>
       </c>
       <c r="D32">
-        <v>0.005368897859133538</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.001276868367272854</v>
+      </c>
+      <c r="E32">
+        <v>-0.05089272101817566</v>
+      </c>
+      <c r="F32">
+        <v>0.02366879947720356</v>
+      </c>
+      <c r="G32">
+        <v>-0.07517698509758526</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.02289062761137051</v>
+        <v>0.02636502260087234</v>
       </c>
       <c r="C33">
-        <v>0.04560461729515111</v>
+        <v>0.04607226630428746</v>
       </c>
       <c r="D33">
-        <v>0.02956580101752126</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.01806376717383295</v>
+      </c>
+      <c r="E33">
+        <v>-0.06462637336903301</v>
+      </c>
+      <c r="F33">
+        <v>0.002197379679439886</v>
+      </c>
+      <c r="G33">
+        <v>-0.1581953061155918</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04423527736177903</v>
+        <v>0.04157119204816068</v>
       </c>
       <c r="C34">
-        <v>0.05899808846544765</v>
+        <v>0.05947689874404143</v>
       </c>
       <c r="D34">
-        <v>0.01273934268416698</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.003886613208180159</v>
+      </c>
+      <c r="E34">
+        <v>-0.01904954292354024</v>
+      </c>
+      <c r="F34">
+        <v>0.01832286981832126</v>
+      </c>
+      <c r="G34">
+        <v>-0.08412641711472447</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01028308525103922</v>
+        <v>0.01479119623426222</v>
       </c>
       <c r="C36">
-        <v>-0.002480451624122538</v>
+        <v>0.005426795092869555</v>
       </c>
       <c r="D36">
-        <v>0.008907641208808128</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01356930777078757</v>
+      </c>
+      <c r="E36">
+        <v>-0.01851216185032447</v>
+      </c>
+      <c r="F36">
+        <v>-0.007564497601608326</v>
+      </c>
+      <c r="G36">
+        <v>-0.09687019620620989</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.02687579426716813</v>
+        <v>0.02987692444798109</v>
       </c>
       <c r="C38">
-        <v>0.02360240750933818</v>
+        <v>0.0230054371434154</v>
       </c>
       <c r="D38">
-        <v>-0.002586411584005604</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.00665413678572493</v>
+      </c>
+      <c r="E38">
+        <v>-0.01650383544009927</v>
+      </c>
+      <c r="F38">
+        <v>-0.01302376630658746</v>
+      </c>
+      <c r="G38">
+        <v>-0.08993608450157034</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.02236399238047027</v>
+        <v>0.03619556124947106</v>
       </c>
       <c r="C39">
-        <v>0.07671715237291653</v>
+        <v>0.07647409060197499</v>
       </c>
       <c r="D39">
-        <v>0.04168820730241762</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.0130857119750131</v>
+      </c>
+      <c r="E39">
+        <v>-0.03777754250893001</v>
+      </c>
+      <c r="F39">
+        <v>0.01322452208195731</v>
+      </c>
+      <c r="G39">
+        <v>-0.09318808954169244</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01574054333482369</v>
+        <v>0.01606892920132619</v>
       </c>
       <c r="C40">
-        <v>0.01476025568764537</v>
+        <v>0.03316871931787372</v>
       </c>
       <c r="D40">
-        <v>0.01571812305498954</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01541234363667217</v>
+      </c>
+      <c r="E40">
+        <v>-0.03482234914087433</v>
+      </c>
+      <c r="F40">
+        <v>-0.02594738595595305</v>
+      </c>
+      <c r="G40">
+        <v>-0.1240807868403858</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01180568548161809</v>
+        <v>0.01852514331194436</v>
       </c>
       <c r="C41">
-        <v>-0.005612639068938652</v>
+        <v>-0.001447551722755969</v>
       </c>
       <c r="D41">
-        <v>-0.0009412685424014325</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.005613347326071265</v>
+      </c>
+      <c r="E41">
+        <v>-0.01538781234619802</v>
+      </c>
+      <c r="F41">
+        <v>-0.01351410086896217</v>
+      </c>
+      <c r="G41">
+        <v>-0.09063273780222969</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.007477025179055219</v>
+        <v>0.004897025839222162</v>
       </c>
       <c r="C42">
-        <v>0.01700991903273446</v>
+        <v>0.02888055243301057</v>
       </c>
       <c r="D42">
-        <v>0.1051950652764649</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.08442001561604041</v>
+      </c>
+      <c r="E42">
+        <v>0.00696787115263173</v>
+      </c>
+      <c r="F42">
+        <v>-0.03248452941734483</v>
+      </c>
+      <c r="G42">
+        <v>0.01703814958036351</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.02803149895051855</v>
+        <v>0.03302977246681925</v>
       </c>
       <c r="C43">
-        <v>0.006628369226250604</v>
+        <v>0.01239459919264392</v>
       </c>
       <c r="D43">
-        <v>0.002107303559587139</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.0072390454835318</v>
+      </c>
+      <c r="E43">
+        <v>-0.03370240829351096</v>
+      </c>
+      <c r="F43">
+        <v>-0.01040003751589955</v>
+      </c>
+      <c r="G43">
+        <v>-0.1201871769838995</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01302898507850095</v>
+        <v>0.01303081800169376</v>
       </c>
       <c r="C44">
-        <v>0.0495568436319405</v>
+        <v>0.05197580780491669</v>
       </c>
       <c r="D44">
-        <v>0.02406530800039856</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.008239080339471214</v>
+      </c>
+      <c r="E44">
+        <v>-0.03723231619915669</v>
+      </c>
+      <c r="F44">
+        <v>-0.01951466044784583</v>
+      </c>
+      <c r="G44">
+        <v>-0.119581017679038</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.00116722485643397</v>
+        <v>0.009444935534742623</v>
       </c>
       <c r="C46">
-        <v>0.0009840577117402837</v>
+        <v>0.01331628909769801</v>
       </c>
       <c r="D46">
-        <v>0.01212116358202397</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01295305348588488</v>
+      </c>
+      <c r="E46">
+        <v>-0.002315448145274391</v>
+      </c>
+      <c r="F46">
+        <v>-0.01645357333996939</v>
+      </c>
+      <c r="G46">
+        <v>-0.1107835106033131</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.06049595243608721</v>
+        <v>0.08145978297692512</v>
       </c>
       <c r="C47">
-        <v>0.06244915253488278</v>
+        <v>0.06864315822018827</v>
       </c>
       <c r="D47">
-        <v>0.01544162749926016</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.005156574104988136</v>
+      </c>
+      <c r="E47">
+        <v>0.008548499901066977</v>
+      </c>
+      <c r="F47">
+        <v>-0.04431833160516593</v>
+      </c>
+      <c r="G47">
+        <v>-0.08758058959929577</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01091590941214854</v>
+        <v>0.01773921545473662</v>
       </c>
       <c r="C48">
-        <v>0.006358761825795211</v>
+        <v>0.009725766695764507</v>
       </c>
       <c r="D48">
-        <v>0.00203134059293945</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.003200009480291109</v>
+      </c>
+      <c r="E48">
+        <v>-0.01289950118869254</v>
+      </c>
+      <c r="F48">
+        <v>-0.0191602577131936</v>
+      </c>
+      <c r="G48">
+        <v>-0.1069522445596218</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.06867325383425404</v>
+        <v>0.07462173939787928</v>
       </c>
       <c r="C50">
-        <v>0.06312383362827258</v>
+        <v>0.06753344031927053</v>
       </c>
       <c r="D50">
-        <v>0.01530696160144574</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.001839777127159751</v>
+      </c>
+      <c r="E50">
+        <v>0.00438412317345196</v>
+      </c>
+      <c r="F50">
+        <v>-0.04497355540925971</v>
+      </c>
+      <c r="G50">
+        <v>-0.1025834638140068</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01083661215434064</v>
+        <v>0.01162037149998047</v>
       </c>
       <c r="C51">
-        <v>0.02942842710277107</v>
+        <v>0.03367196206962884</v>
       </c>
       <c r="D51">
-        <v>0.01916616261445821</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01205063720090945</v>
+      </c>
+      <c r="E51">
+        <v>-0.03850443131994998</v>
+      </c>
+      <c r="F51">
+        <v>0.007957145329854993</v>
+      </c>
+      <c r="G51">
+        <v>-0.1169322197474337</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08464851264278664</v>
+        <v>0.08385975903283573</v>
       </c>
       <c r="C53">
-        <v>0.08305877055532546</v>
+        <v>0.08193879553628899</v>
       </c>
       <c r="D53">
-        <v>0.02201851805251978</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.004199552811431678</v>
+      </c>
+      <c r="E53">
+        <v>0.02991290911196479</v>
+      </c>
+      <c r="F53">
+        <v>-0.04825665553113686</v>
+      </c>
+      <c r="G53">
+        <v>-0.09386793892599023</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.02631696756644928</v>
+        <v>0.03141985721600509</v>
       </c>
       <c r="C54">
-        <v>0.002662109226497257</v>
+        <v>0.01367068574810918</v>
       </c>
       <c r="D54">
-        <v>-0.006394139820773812</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.0001543113363725584</v>
+      </c>
+      <c r="E54">
+        <v>-0.02495220242151523</v>
+      </c>
+      <c r="F54">
+        <v>-0.01164471882785008</v>
+      </c>
+      <c r="G54">
+        <v>-0.1102560163697787</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.06331236330204537</v>
+        <v>0.07751571198235059</v>
       </c>
       <c r="C55">
-        <v>0.06748850666446629</v>
+        <v>0.06685668895309153</v>
       </c>
       <c r="D55">
-        <v>0.01749088083357529</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.005905875887440521</v>
+      </c>
+      <c r="E55">
+        <v>0.03129454987201575</v>
+      </c>
+      <c r="F55">
+        <v>-0.04870723552386465</v>
+      </c>
+      <c r="G55">
+        <v>-0.0718431866108348</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1287295446045003</v>
+        <v>0.1386427890461336</v>
       </c>
       <c r="C56">
-        <v>0.1135354012024998</v>
+        <v>0.1034498205375481</v>
       </c>
       <c r="D56">
-        <v>0.02228086329925658</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01324645122672476</v>
+      </c>
+      <c r="E56">
+        <v>0.0369943608131329</v>
+      </c>
+      <c r="F56">
+        <v>-0.05703265807180447</v>
+      </c>
+      <c r="G56">
+        <v>-0.05658390597468811</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.009831186122132766</v>
+        <v>0.003590830197436366</v>
       </c>
       <c r="C57">
-        <v>-1.397220612258802e-05</v>
+        <v>0.00367277004192148</v>
       </c>
       <c r="D57">
-        <v>0.02262039987083886</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.02297642972894688</v>
+      </c>
+      <c r="E57">
+        <v>-0.02423046449815084</v>
+      </c>
+      <c r="F57">
+        <v>-0.001708336098086171</v>
+      </c>
+      <c r="G57">
+        <v>-0.01380438999228245</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.03782032306950744</v>
+        <v>0.03935225661674986</v>
       </c>
       <c r="C58">
-        <v>0.05415597050026844</v>
+        <v>0.02793743103282403</v>
       </c>
       <c r="D58">
-        <v>0.01833371880470865</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.0359035852338991</v>
+      </c>
+      <c r="E58">
+        <v>-0.7519870639215057</v>
+      </c>
+      <c r="F58">
+        <v>-0.5568654113380231</v>
+      </c>
+      <c r="G58">
+        <v>0.2865587196177611</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1781530382899514</v>
+        <v>0.1559917619594736</v>
       </c>
       <c r="C59">
-        <v>-0.1738085186491358</v>
+        <v>-0.2108244197677005</v>
       </c>
       <c r="D59">
-        <v>-0.1139503219267268</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.01082234008938209</v>
+      </c>
+      <c r="E59">
+        <v>-0.02094098475321947</v>
+      </c>
+      <c r="F59">
+        <v>-0.006924234766790579</v>
+      </c>
+      <c r="G59">
+        <v>-0.03225432199491786</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3075338204239753</v>
+        <v>0.2859142442639832</v>
       </c>
       <c r="C60">
-        <v>0.1267124671051237</v>
+        <v>0.1071104612938687</v>
       </c>
       <c r="D60">
-        <v>0.02366589519988744</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.01725213553264929</v>
+      </c>
+      <c r="E60">
+        <v>-0.1151312843368602</v>
+      </c>
+      <c r="F60">
+        <v>0.309263887279533</v>
+      </c>
+      <c r="G60">
+        <v>0.1742316927991482</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.02514679327252075</v>
+        <v>0.03906797399937045</v>
       </c>
       <c r="C61">
-        <v>0.06080867094336703</v>
+        <v>0.06250876295590492</v>
       </c>
       <c r="D61">
-        <v>0.02723599970760147</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.006932427655681466</v>
+      </c>
+      <c r="E61">
+        <v>-0.03554416036408615</v>
+      </c>
+      <c r="F61">
+        <v>0.006996300002764392</v>
+      </c>
+      <c r="G61">
+        <v>-0.09129875719621727</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01216222597769655</v>
+        <v>0.01473667136557694</v>
       </c>
       <c r="C63">
-        <v>0.0271401544089489</v>
+        <v>0.02705135602519008</v>
       </c>
       <c r="D63">
-        <v>0.01859485094043621</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.009085795027412745</v>
+      </c>
+      <c r="E63">
+        <v>-0.009842965346346639</v>
+      </c>
+      <c r="F63">
+        <v>-0.01588033675840727</v>
+      </c>
+      <c r="G63">
+        <v>-0.09493237406110268</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.04276638502317066</v>
+        <v>0.05057586558964017</v>
       </c>
       <c r="C64">
-        <v>0.03426923748472069</v>
+        <v>0.04541099889936371</v>
       </c>
       <c r="D64">
-        <v>0.01416611673884905</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.006149526989914688</v>
+      </c>
+      <c r="E64">
+        <v>-0.008612102257235405</v>
+      </c>
+      <c r="F64">
+        <v>0.006996824814875013</v>
+      </c>
+      <c r="G64">
+        <v>-0.09350313257039852</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.07683262998343632</v>
+        <v>0.07055943438271026</v>
       </c>
       <c r="C65">
-        <v>0.07419605089980194</v>
+        <v>0.05398480901413015</v>
       </c>
       <c r="D65">
-        <v>0.03809407474916274</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.01879366900806334</v>
+      </c>
+      <c r="E65">
+        <v>-0.05928056849758</v>
+      </c>
+      <c r="F65">
+        <v>0.00929091131673423</v>
+      </c>
+      <c r="G65">
+        <v>-0.04174536066150285</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.03952697904700854</v>
+        <v>0.04759668718765585</v>
       </c>
       <c r="C66">
-        <v>0.1207268566815426</v>
+        <v>0.1021580836556898</v>
       </c>
       <c r="D66">
-        <v>0.05848604808656633</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.01413211079357214</v>
+      </c>
+      <c r="E66">
+        <v>-0.06239360129726172</v>
+      </c>
+      <c r="F66">
+        <v>0.02189521480830995</v>
+      </c>
+      <c r="G66">
+        <v>-0.1004699023172722</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05394866177883163</v>
+        <v>0.05399255645406605</v>
       </c>
       <c r="C67">
-        <v>0.03341185196137624</v>
+        <v>0.02942772390137825</v>
       </c>
       <c r="D67">
-        <v>0.000967144664086112</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.005531545193522404</v>
+      </c>
+      <c r="E67">
+        <v>-0.004544116712346205</v>
+      </c>
+      <c r="F67">
+        <v>-0.008139688390688486</v>
+      </c>
+      <c r="G67">
+        <v>-0.07691191929749347</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1588722989374753</v>
+        <v>0.1554735173771329</v>
       </c>
       <c r="C68">
-        <v>-0.2299644870716319</v>
+        <v>-0.2721192438892863</v>
       </c>
       <c r="D68">
-        <v>-0.1145131389144337</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.004573985086681798</v>
+      </c>
+      <c r="E68">
+        <v>0.01094420975662163</v>
+      </c>
+      <c r="F68">
+        <v>-0.04540384952533573</v>
+      </c>
+      <c r="G68">
+        <v>-0.01197260886900107</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.06968679076211109</v>
+        <v>0.08308435749846824</v>
       </c>
       <c r="C69">
-        <v>0.06315234620052294</v>
+        <v>0.07119458327888677</v>
       </c>
       <c r="D69">
-        <v>0.009772783430706799</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.008814063991797289</v>
+      </c>
+      <c r="E69">
+        <v>0.01699573432883668</v>
+      </c>
+      <c r="F69">
+        <v>-0.02153693867660884</v>
+      </c>
+      <c r="G69">
+        <v>-0.1003868414175137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1535593780118861</v>
+        <v>0.141938606030151</v>
       </c>
       <c r="C71">
-        <v>-0.1794482084143619</v>
+        <v>-0.2331401550213569</v>
       </c>
       <c r="D71">
-        <v>-0.1028106627816628</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.00311967096138875</v>
+      </c>
+      <c r="E71">
+        <v>-0.02445092582249509</v>
+      </c>
+      <c r="F71">
+        <v>-0.02881882053853696</v>
+      </c>
+      <c r="G71">
+        <v>-0.05881527994570297</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.06419938015584285</v>
+        <v>0.08492963271029566</v>
       </c>
       <c r="C72">
-        <v>0.07297256063686627</v>
+        <v>0.06391014044858911</v>
       </c>
       <c r="D72">
-        <v>0.01464591121743478</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.006820006968273844</v>
+      </c>
+      <c r="E72">
+        <v>-0.009655298770580552</v>
+      </c>
+      <c r="F72">
+        <v>0.02582452693182418</v>
+      </c>
+      <c r="G72">
+        <v>-0.08369528414899788</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.4140424317970206</v>
+        <v>0.3659965909055659</v>
       </c>
       <c r="C73">
-        <v>0.1880402531842174</v>
+        <v>0.1117647606867158</v>
       </c>
       <c r="D73">
-        <v>0.04253987427516476</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.03150160865399381</v>
+      </c>
+      <c r="E73">
+        <v>-0.2624895403479558</v>
+      </c>
+      <c r="F73">
+        <v>0.5326220615751406</v>
+      </c>
+      <c r="G73">
+        <v>0.3180604588678397</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.09880301402476298</v>
+        <v>0.1066881706701169</v>
       </c>
       <c r="C74">
-        <v>0.1239111513436896</v>
+        <v>0.1054998291125552</v>
       </c>
       <c r="D74">
-        <v>0.03273924072358241</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.009523538826255191</v>
+      </c>
+      <c r="E74">
+        <v>0.01019253989850211</v>
+      </c>
+      <c r="F74">
+        <v>-0.05724890846756317</v>
+      </c>
+      <c r="G74">
+        <v>-0.07702505877442362</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2265280086222584</v>
+        <v>0.2499249921786593</v>
       </c>
       <c r="C75">
-        <v>0.1769111725019591</v>
+        <v>0.1467704052371051</v>
       </c>
       <c r="D75">
-        <v>0.02678846873116299</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03252622241501347</v>
+      </c>
+      <c r="E75">
+        <v>0.09767470449728191</v>
+      </c>
+      <c r="F75">
+        <v>-0.1316395872505402</v>
+      </c>
+      <c r="G75">
+        <v>-0.01758611969923219</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1121968470569356</v>
+        <v>0.119256180875413</v>
       </c>
       <c r="C76">
-        <v>0.125738732512362</v>
+        <v>0.1065794339235099</v>
       </c>
       <c r="D76">
-        <v>0.02402655969090735</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01844821366438807</v>
+      </c>
+      <c r="E76">
+        <v>0.0419332110000369</v>
+      </c>
+      <c r="F76">
+        <v>-0.08093210980764015</v>
+      </c>
+      <c r="G76">
+        <v>-0.07165151342178618</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.04740684939881985</v>
+        <v>0.06894377169566127</v>
       </c>
       <c r="C77">
-        <v>0.055510808754477</v>
+        <v>0.04865681939973254</v>
       </c>
       <c r="D77">
-        <v>0.02674613793440102</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.01199965251943274</v>
+      </c>
+      <c r="E77">
+        <v>-0.06529785481343424</v>
+      </c>
+      <c r="F77">
+        <v>-0.005012663502059376</v>
+      </c>
+      <c r="G77">
+        <v>-0.08367194676787902</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.0425932753975798</v>
+        <v>0.03988105636069283</v>
       </c>
       <c r="C78">
-        <v>0.05327451463037402</v>
+        <v>0.05046472416691892</v>
       </c>
       <c r="D78">
-        <v>0.02107604036802232</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.008536444749649914</v>
+      </c>
+      <c r="E78">
+        <v>-0.04917193614698617</v>
+      </c>
+      <c r="F78">
+        <v>0.02316746009776307</v>
+      </c>
+      <c r="G78">
+        <v>-0.09866957610027284</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.001579356963997896</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-0.001151615106531758</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.0008020929629817953</v>
+      </c>
+      <c r="E79">
+        <v>-0.007102919920447044</v>
+      </c>
+      <c r="F79">
+        <v>-0.001444160289827352</v>
+      </c>
+      <c r="G79">
+        <v>-0.00714514097826695</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.04642794172134777</v>
+        <v>0.04085472932403755</v>
       </c>
       <c r="C80">
-        <v>0.05817492113661132</v>
+        <v>0.04762887967773213</v>
       </c>
       <c r="D80">
-        <v>0.03172831963780343</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01489601766813928</v>
+      </c>
+      <c r="E80">
+        <v>-0.03857465313356469</v>
+      </c>
+      <c r="F80">
+        <v>-0.003921179647611682</v>
+      </c>
+      <c r="G80">
+        <v>-0.05741703584353144</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1253083024592024</v>
+        <v>0.1397481341376677</v>
       </c>
       <c r="C81">
-        <v>0.09873416999844929</v>
+        <v>0.09013027105010561</v>
       </c>
       <c r="D81">
-        <v>0.01564915635595095</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01595597013518058</v>
+      </c>
+      <c r="E81">
+        <v>0.06054489117233833</v>
+      </c>
+      <c r="F81">
+        <v>-0.1038615298543416</v>
+      </c>
+      <c r="G81">
+        <v>-0.03775518286434695</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.04267400719854108</v>
+        <v>0.1673544723583414</v>
       </c>
       <c r="C82">
-        <v>0.0360564071504485</v>
+        <v>0.1130082667836491</v>
       </c>
       <c r="D82">
-        <v>0.00863967057210431</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.01752821012109111</v>
+      </c>
+      <c r="E82">
+        <v>0.1678104535846432</v>
+      </c>
+      <c r="F82">
+        <v>-0.04911486677192722</v>
+      </c>
+      <c r="G82">
+        <v>-0.0156554549934381</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.02284426850841706</v>
+        <v>0.03343275391915401</v>
       </c>
       <c r="C83">
-        <v>0.01726581085981495</v>
+        <v>0.02975781956327468</v>
       </c>
       <c r="D83">
-        <v>0.009068729093530894</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.00787740775484486</v>
+      </c>
+      <c r="E83">
+        <v>-0.04199477273981918</v>
+      </c>
+      <c r="F83">
+        <v>0.02885180799159252</v>
+      </c>
+      <c r="G83">
+        <v>-0.0548709521817952</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2206468825586569</v>
+        <v>0.2111559089007104</v>
       </c>
       <c r="C85">
-        <v>0.1898263249963456</v>
+        <v>0.1409308908615715</v>
       </c>
       <c r="D85">
-        <v>0.04616731084922793</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01831145437085359</v>
+      </c>
+      <c r="E85">
+        <v>0.1054682235439804</v>
+      </c>
+      <c r="F85">
+        <v>-0.06099747537806498</v>
+      </c>
+      <c r="G85">
+        <v>0.01828376301408854</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.007606134279690052</v>
+        <v>0.01141406585067411</v>
       </c>
       <c r="C86">
-        <v>0.01753921937000515</v>
+        <v>0.02403292143601684</v>
       </c>
       <c r="D86">
-        <v>0.01350326628599009</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.01394871232592451</v>
+      </c>
+      <c r="E86">
+        <v>-0.07322887535444178</v>
+      </c>
+      <c r="F86">
+        <v>0.01853517632607111</v>
+      </c>
+      <c r="G86">
+        <v>-0.1727352730286312</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.007845708882103668</v>
+        <v>0.02084767386937442</v>
       </c>
       <c r="C87">
-        <v>0.01308540672580992</v>
+        <v>0.01480159608711587</v>
       </c>
       <c r="D87">
-        <v>0.01354964217427781</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.01415599808791245</v>
+      </c>
+      <c r="E87">
+        <v>-0.09937797285498448</v>
+      </c>
+      <c r="F87">
+        <v>-0.02763861552651457</v>
+      </c>
+      <c r="G87">
+        <v>-0.1120483566857382</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.08339338482267533</v>
+        <v>0.08991030789062336</v>
       </c>
       <c r="C88">
-        <v>0.05109090382418967</v>
+        <v>0.066158664057979</v>
       </c>
       <c r="D88">
-        <v>0.03568263789902339</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02315597622153497</v>
+      </c>
+      <c r="E88">
+        <v>-0.007419490820424173</v>
+      </c>
+      <c r="F88">
+        <v>-0.01405262124537279</v>
+      </c>
+      <c r="G88">
+        <v>-0.1057307716235262</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.2586874483006244</v>
+        <v>0.2274644757871304</v>
       </c>
       <c r="C89">
-        <v>-0.3155677208346933</v>
+        <v>-0.3705120146902411</v>
       </c>
       <c r="D89">
-        <v>-0.1718646713513179</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.0003417431212981266</v>
+      </c>
+      <c r="E89">
+        <v>0.02722897752488301</v>
+      </c>
+      <c r="F89">
+        <v>-0.0158356111798397</v>
+      </c>
+      <c r="G89">
+        <v>-0.08139486565543523</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.22369698672675</v>
+        <v>0.2061015073950766</v>
       </c>
       <c r="C90">
-        <v>-0.2783522934611413</v>
+        <v>-0.317569758031783</v>
       </c>
       <c r="D90">
-        <v>-0.1558059846701906</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.004860449396267164</v>
+      </c>
+      <c r="E90">
+        <v>0.01456274199177026</v>
+      </c>
+      <c r="F90">
+        <v>-0.04745870226420639</v>
+      </c>
+      <c r="G90">
+        <v>-0.04234464792534932</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1798025652749417</v>
+        <v>0.1874192550385056</v>
       </c>
       <c r="C91">
-        <v>0.1314120640157834</v>
+        <v>0.1338249902480695</v>
       </c>
       <c r="D91">
-        <v>0.01482230609090673</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.02330311321548105</v>
+      </c>
+      <c r="E91">
+        <v>0.07935209981443017</v>
+      </c>
+      <c r="F91">
+        <v>-0.1004383336737663</v>
+      </c>
+      <c r="G91">
+        <v>-0.04521753556821932</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.2156655875915256</v>
+        <v>0.1920215814346018</v>
       </c>
       <c r="C92">
-        <v>-0.1870301303323416</v>
+        <v>-0.2624958969847682</v>
       </c>
       <c r="D92">
-        <v>-0.1513838950458236</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03819401624538443</v>
+      </c>
+      <c r="E92">
+        <v>-0.02082310491098297</v>
+      </c>
+      <c r="F92">
+        <v>-0.05348325106867879</v>
+      </c>
+      <c r="G92">
+        <v>-0.09181133495542577</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.2420512035060421</v>
+        <v>0.2290920357392341</v>
       </c>
       <c r="C93">
-        <v>-0.2556874435077718</v>
+        <v>-0.3152102880165751</v>
       </c>
       <c r="D93">
-        <v>-0.1542813106623682</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01047287248786899</v>
+      </c>
+      <c r="E93">
+        <v>-0.001437269714423941</v>
+      </c>
+      <c r="F93">
+        <v>-0.03628049489064801</v>
+      </c>
+      <c r="G93">
+        <v>-0.05662541017613155</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.2425866666910343</v>
+        <v>0.3337331507080245</v>
       </c>
       <c r="C94">
-        <v>0.1730563087893311</v>
+        <v>0.2063465860687871</v>
       </c>
       <c r="D94">
-        <v>0.04533071992200387</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.02878915092646887</v>
+      </c>
+      <c r="E94">
+        <v>0.3758454373937566</v>
+      </c>
+      <c r="F94">
+        <v>-0.3947557470049628</v>
+      </c>
+      <c r="G94">
+        <v>0.3703044162893</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.06362694810415521</v>
+        <v>0.08885354856045642</v>
       </c>
       <c r="C95">
-        <v>0.1107882462590848</v>
+        <v>0.07402015729694271</v>
       </c>
       <c r="D95">
-        <v>0.0335946255470914</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.006441107018668947</v>
+      </c>
+      <c r="E95">
+        <v>-0.1300631215891133</v>
+      </c>
+      <c r="F95">
+        <v>0.1598433126070142</v>
+      </c>
+      <c r="G95">
+        <v>-0.05770903612771853</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.2043623614074021</v>
+        <v>0.1912939058149881</v>
       </c>
       <c r="C98">
-        <v>0.0772022071737453</v>
+        <v>0.04850698155737596</v>
       </c>
       <c r="D98">
-        <v>-0.01354996686195272</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.009022221683125338</v>
+      </c>
+      <c r="E98">
+        <v>-0.1308864318362268</v>
+      </c>
+      <c r="F98">
+        <v>0.1941429296400905</v>
+      </c>
+      <c r="G98">
+        <v>0.06377991247942501</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.008576363698902044</v>
+        <v>0.00783754673318798</v>
       </c>
       <c r="C101">
-        <v>0.01678550623168568</v>
+        <v>0.02050767701257181</v>
       </c>
       <c r="D101">
-        <v>0.01398776863410186</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01008497591315566</v>
+      </c>
+      <c r="E101">
+        <v>-0.01129115738959376</v>
+      </c>
+      <c r="F101">
+        <v>-0.01237171853831196</v>
+      </c>
+      <c r="G101">
+        <v>-0.1058205793048342</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1081812664656408</v>
+        <v>0.121735579744597</v>
       </c>
       <c r="C102">
-        <v>0.08604021069967133</v>
+        <v>0.08848546616924555</v>
       </c>
       <c r="D102">
-        <v>0.02862210143382471</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-7.818246581103644e-05</v>
+      </c>
+      <c r="E102">
+        <v>0.0438918081961083</v>
+      </c>
+      <c r="F102">
+        <v>-0.01799550014334783</v>
+      </c>
+      <c r="G102">
+        <v>-0.01679334007603463</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.1370887161253692</v>
+        <v>0.02038918596146533</v>
       </c>
       <c r="C104">
-        <v>-0.4222482320506644</v>
+        <v>-0.02855374442596618</v>
       </c>
       <c r="D104">
-        <v>0.8862638514639303</v>
+        <v>-0.9861503453217727</v>
+      </c>
+      <c r="E104">
+        <v>0.08606870316845106</v>
+      </c>
+      <c r="F104">
+        <v>-0.0220430301074026</v>
+      </c>
+      <c r="G104">
+        <v>0.03773113980999204</v>
       </c>
     </row>
   </sheetData>
